--- a/artfynd/A 22567-2022.xlsx
+++ b/artfynd/A 22567-2022.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105899196</v>
+        <v>105899142</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>595110.1182001749</v>
+        <v>594189.8063436362</v>
       </c>
       <c r="R3" t="n">
-        <v>6928325.564993897</v>
+        <v>6928422.035001619</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105899142</v>
+        <v>105899196</v>
       </c>
       <c r="B4" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>594189.8063436362</v>
+        <v>595110.1182001749</v>
       </c>
       <c r="R4" t="n">
-        <v>6928422.035001619</v>
+        <v>6928325.564993897</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>

--- a/artfynd/A 22567-2022.xlsx
+++ b/artfynd/A 22567-2022.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105899142</v>
+        <v>105899196</v>
       </c>
       <c r="B3" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>594189.8063436362</v>
+        <v>595110.1182001749</v>
       </c>
       <c r="R3" t="n">
-        <v>6928422.035001619</v>
+        <v>6928325.564993897</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105899196</v>
+        <v>105899142</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>595110.1182001749</v>
+        <v>594189.8063436362</v>
       </c>
       <c r="R4" t="n">
-        <v>6928325.564993897</v>
+        <v>6928422.035001619</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
